--- a/mapao.xlsx
+++ b/mapao.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao.costa\Desktop\2023\Sistemas\ultimaprova\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB6A078-48F6-4783-9C1D-978854718D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>ART</t>
   </si>
@@ -51,9 +56,6 @@
   </si>
   <si>
     <t>MAC</t>
-  </si>
-  <si>
-    <t>Bernardo Guimarães Vidal</t>
   </si>
   <si>
     <t>Bianca Demuner Campos</t>
@@ -157,21 +159,25 @@
   <si>
     <t>MÉDIA DA TURMA:</t>
   </si>
+  <si>
+    <t>Bernardo Guimarães Vidal 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -179,31 +185,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -493,19 +511,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -557,12 +575,12 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>901</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C2" s="1">
         <v>9.5</v>
@@ -571,7 +589,7 @@
         <v>7.8</v>
       </c>
       <c r="E2" s="1">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F2" s="1">
         <v>9.6</v>
@@ -586,13 +604,13 @@
         <v>9.1</v>
       </c>
       <c r="J2" s="1">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="K2" s="1">
         <v>9.1</v>
       </c>
       <c r="L2" s="1">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M2" s="1">
         <v>0</v>
@@ -613,12 +631,12 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>901</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>9.5</v>
@@ -648,7 +666,7 @@
         <v>6.6</v>
       </c>
       <c r="L3" s="1">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -669,12 +687,12 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>901</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
@@ -683,19 +701,19 @@
         <v>8.4</v>
       </c>
       <c r="E4" s="1">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F4" s="1">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G4" s="1">
         <v>9.6</v>
       </c>
       <c r="H4" s="1">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I4" s="1">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="J4" s="1">
         <v>8.6</v>
@@ -725,30 +743,30 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>901</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
       </c>
       <c r="D5" s="1">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E5" s="1">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F5" s="1">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G5" s="1">
         <v>8</v>
       </c>
       <c r="H5" s="1">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I5" s="1">
         <v>9</v>
@@ -757,10 +775,10 @@
         <v>8.6</v>
       </c>
       <c r="K5" s="1">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L5" s="1">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -781,18 +799,18 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>901</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
         <v>9.5</v>
       </c>
       <c r="D6" s="1">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E6" s="1">
         <v>8.6</v>
@@ -801,7 +819,7 @@
         <v>9.6</v>
       </c>
       <c r="G6" s="1">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H6" s="1">
         <v>9.6</v>
@@ -837,12 +855,12 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>901</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
@@ -854,13 +872,13 @@
         <v>7.1</v>
       </c>
       <c r="F7" s="1">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G7" s="1">
         <v>7.5</v>
       </c>
       <c r="H7" s="1">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I7" s="1">
         <v>7.5</v>
@@ -893,12 +911,12 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>901</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -949,12 +967,12 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>901</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
         <v>10</v>
@@ -963,10 +981,10 @@
         <v>8.4</v>
       </c>
       <c r="E9" s="1">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F9" s="1">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G9" s="1">
         <v>9.4</v>
@@ -984,7 +1002,7 @@
         <v>9.5</v>
       </c>
       <c r="L9" s="1">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1005,18 +1023,18 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>901</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1">
         <v>10</v>
       </c>
       <c r="D10" s="1">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E10" s="1">
         <v>9.1</v>
@@ -1034,10 +1052,10 @@
         <v>7.8</v>
       </c>
       <c r="J10" s="1">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="K10" s="1">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="L10" s="1">
         <v>9</v>
@@ -1061,12 +1079,12 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>901</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
@@ -1117,12 +1135,12 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>901</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1">
         <v>9.5</v>
@@ -1134,10 +1152,10 @@
         <v>7.3</v>
       </c>
       <c r="F12" s="1">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G12" s="1">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H12" s="1">
         <v>9.4</v>
@@ -1152,7 +1170,7 @@
         <v>8.4</v>
       </c>
       <c r="L12" s="1">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1173,12 +1191,12 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>901</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1">
         <v>9.5</v>
@@ -1190,7 +1208,7 @@
         <v>9.5</v>
       </c>
       <c r="F13" s="1">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G13" s="1">
         <v>9.4</v>
@@ -1199,10 +1217,10 @@
         <v>9.5</v>
       </c>
       <c r="I13" s="1">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="J13" s="1">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="K13" s="1">
         <v>10</v>
@@ -1229,12 +1247,12 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>901</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1">
         <v>10</v>
@@ -1258,13 +1276,13 @@
         <v>7.5</v>
       </c>
       <c r="J14" s="1">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="K14" s="1">
         <v>9.5</v>
       </c>
       <c r="L14" s="1">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1285,24 +1303,24 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>901</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1">
         <v>10</v>
       </c>
       <c r="D15" s="1">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E15" s="1">
         <v>9</v>
       </c>
       <c r="F15" s="1">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G15" s="1">
         <v>9.5</v>
@@ -1320,7 +1338,7 @@
         <v>7.7</v>
       </c>
       <c r="L15" s="1">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -1341,12 +1359,12 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>901</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
@@ -1361,7 +1379,7 @@
         <v>9.1</v>
       </c>
       <c r="G16" s="1">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H16" s="1">
         <v>9.6</v>
@@ -1370,7 +1388,7 @@
         <v>9</v>
       </c>
       <c r="J16" s="1">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="K16" s="1">
         <v>10</v>
@@ -1397,12 +1415,12 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>901</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1">
         <v>9.5</v>
@@ -1453,18 +1471,18 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>901</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1">
         <v>10</v>
       </c>
       <c r="D18" s="1">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E18" s="1">
         <v>9</v>
@@ -1476,19 +1494,19 @@
         <v>9.4</v>
       </c>
       <c r="H18" s="1">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I18" s="1">
         <v>9.1</v>
       </c>
       <c r="J18" s="1">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="K18" s="1">
         <v>9</v>
       </c>
       <c r="L18" s="1">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -1509,12 +1527,12 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>901</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1">
         <v>10</v>
@@ -1523,7 +1541,7 @@
         <v>8.4</v>
       </c>
       <c r="E19" s="1">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F19" s="1">
         <v>9.4</v>
@@ -1538,7 +1556,7 @@
         <v>9</v>
       </c>
       <c r="J19" s="1">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="K19" s="1">
         <v>10</v>
@@ -1565,12 +1583,12 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>901</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1">
         <v>10</v>
@@ -1585,10 +1603,10 @@
         <v>8.1</v>
       </c>
       <c r="G20" s="1">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H20" s="1">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I20" s="1">
         <v>7</v>
@@ -1600,7 +1618,7 @@
         <v>7.8</v>
       </c>
       <c r="L20" s="1">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -1621,12 +1639,12 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>901</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1">
         <v>9.5</v>
@@ -1647,7 +1665,7 @@
         <v>9.1</v>
       </c>
       <c r="I21" s="1">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="J21" s="1">
         <v>9.1</v>
@@ -1677,12 +1695,12 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>901</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1">
         <v>10</v>
@@ -1691,13 +1709,13 @@
         <v>7.8</v>
       </c>
       <c r="E22" s="1">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F22" s="1">
         <v>8.5</v>
       </c>
       <c r="G22" s="1">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H22" s="1">
         <v>9</v>
@@ -1733,12 +1751,12 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>901</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1">
         <v>10</v>
@@ -1753,7 +1771,7 @@
         <v>7.9</v>
       </c>
       <c r="G23" s="1">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H23" s="1">
         <v>9.4</v>
@@ -1762,7 +1780,7 @@
         <v>7.7</v>
       </c>
       <c r="J23" s="1">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="K23" s="1">
         <v>8.5</v>
@@ -1789,18 +1807,18 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>901</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1">
         <v>10</v>
       </c>
       <c r="D24" s="1">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E24" s="1">
         <v>9</v>
@@ -1809,7 +1827,7 @@
         <v>9.5</v>
       </c>
       <c r="G24" s="1">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H24" s="1">
         <v>9.4</v>
@@ -1818,7 +1836,7 @@
         <v>8</v>
       </c>
       <c r="J24" s="1">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="K24" s="1">
         <v>8</v>
@@ -1845,12 +1863,12 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>901</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1">
         <v>9.5</v>
@@ -1877,10 +1895,10 @@
         <v>8.6</v>
       </c>
       <c r="K25" s="1">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L25" s="1">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -1901,12 +1919,12 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>901</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1">
         <v>10</v>
@@ -1918,7 +1936,7 @@
         <v>8</v>
       </c>
       <c r="F26" s="1">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G26" s="1">
         <v>8</v>
@@ -1936,7 +1954,7 @@
         <v>8</v>
       </c>
       <c r="L26" s="1">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -1957,19 +1975,19 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D27" s="1">
         <v>8</v>
       </c>
       <c r="E27" s="1">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F27" s="1">
         <v>8.9</v>
@@ -1978,7 +1996,7 @@
         <v>8.6</v>
       </c>
       <c r="H27" s="1">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I27" s="1">
         <v>8.1</v>
@@ -2005,7 +2023,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2033,13 +2051,13 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2065,13 +2083,13 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2097,10 +2115,10 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1">
         <v>25</v>
@@ -2129,13 +2147,13 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2161,10 +2179,10 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="1">
         <v>10</v>
@@ -2193,10 +2211,10 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="1">
         <v>6</v>
@@ -2225,10 +2243,10 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="1">
         <v>8.6</v>
@@ -2257,7 +2275,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2285,7 +2303,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2313,7 +2331,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2341,7 +2359,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2369,7 +2387,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2397,7 +2415,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2425,7 +2443,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2453,7 +2471,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2481,7 +2499,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2509,7 +2527,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2537,7 +2555,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2565,7 +2583,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2593,7 +2611,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2621,7 +2639,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2649,7 +2667,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2677,7 +2695,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2705,7 +2723,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2733,7 +2751,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2761,7 +2779,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2789,7 +2807,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2817,7 +2835,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2845,7 +2863,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2873,7 +2891,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2901,7 +2919,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2929,7 +2947,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2957,7 +2975,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2985,7 +3003,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3013,7 +3031,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3041,7 +3059,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3069,7 +3087,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3097,7 +3115,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3125,7 +3143,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3153,7 +3171,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3181,7 +3199,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3209,7 +3227,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3237,7 +3255,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3265,7 +3283,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3293,7 +3311,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3321,7 +3339,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3349,7 +3367,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3377,7 +3395,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3405,7 +3423,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3433,7 +3451,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3461,7 +3479,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3489,7 +3507,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3517,7 +3535,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3545,7 +3563,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3573,7 +3591,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3601,7 +3619,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3629,7 +3647,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3657,7 +3675,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3685,7 +3703,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3713,7 +3731,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3741,7 +3759,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3769,7 +3787,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3797,7 +3815,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3825,7 +3843,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3853,7 +3871,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3881,7 +3899,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3909,7 +3927,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3937,7 +3955,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3965,7 +3983,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3993,7 +4011,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4021,7 +4039,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4049,7 +4067,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4077,7 +4095,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4105,7 +4123,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4133,7 +4151,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4161,7 +4179,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4189,7 +4207,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4217,7 +4235,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4245,7 +4263,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4273,7 +4291,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4301,7 +4319,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4329,7 +4347,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4357,7 +4375,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4385,7 +4403,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4413,7 +4431,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" spans="1:26">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4441,7 +4459,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" spans="1:26">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4469,7 +4487,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:26">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4497,7 +4515,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:26">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4525,7 +4543,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4553,7 +4571,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4581,7 +4599,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" spans="1:26">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4609,7 +4627,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:26">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4637,7 +4655,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4665,7 +4683,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4693,7 +4711,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" spans="1:26">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4721,7 +4739,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" spans="1:26">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4749,7 +4767,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" spans="1:26">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4777,7 +4795,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4805,7 +4823,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4833,7 +4851,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4861,7 +4879,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4889,7 +4907,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" spans="1:26">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4917,7 +4935,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4945,7 +4963,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" spans="1:26">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4973,7 +4991,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" spans="1:26">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -5001,7 +5019,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -5029,7 +5047,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -5057,7 +5075,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" spans="1:26">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -5085,7 +5103,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" spans="1:26">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -5113,7 +5131,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -5141,7 +5159,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -5169,7 +5187,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -5197,7 +5215,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -5225,7 +5243,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -5253,7 +5271,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" spans="1:26">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -5281,7 +5299,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -5309,7 +5327,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" spans="1:26">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -5337,7 +5355,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" spans="1:26">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -5365,7 +5383,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" spans="1:26">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -5393,7 +5411,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" spans="1:26">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -5421,7 +5439,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" spans="1:26">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -5449,7 +5467,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" spans="1:26">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -5477,7 +5495,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" spans="1:26">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -5505,7 +5523,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" spans="1:26">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -5533,7 +5551,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" spans="1:26">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -5561,7 +5579,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" spans="1:26">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -5589,7 +5607,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" spans="1:26">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -5617,7 +5635,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" spans="1:26">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -5645,7 +5663,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" spans="1:26">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -5673,7 +5691,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" spans="1:26">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -5701,7 +5719,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" spans="1:26">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -5729,7 +5747,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" spans="1:26">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -5757,7 +5775,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" spans="1:26">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5785,7 +5803,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" spans="1:26">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -5813,7 +5831,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" spans="1:26">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5841,7 +5859,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" spans="1:26">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5869,7 +5887,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" spans="1:26">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5897,7 +5915,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" spans="1:26">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5925,7 +5943,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" spans="1:26">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5953,7 +5971,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" spans="1:26">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5981,7 +5999,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" spans="1:26">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -6009,7 +6027,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" spans="1:26">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -6037,7 +6055,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" spans="1:26">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6065,7 +6083,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" spans="1:26">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6093,7 +6111,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" spans="1:26">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6121,7 +6139,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" spans="1:26">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -6149,7 +6167,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" spans="1:26">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -6177,7 +6195,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" spans="1:26">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -6205,7 +6223,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" spans="1:26">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -6233,7 +6251,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" spans="1:26">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -6261,7 +6279,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" spans="1:26">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -6289,7 +6307,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" spans="1:26">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -6317,7 +6335,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" spans="1:26">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -6345,7 +6363,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" spans="1:26">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -6373,7 +6391,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" spans="1:26">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -6401,7 +6419,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" spans="1:26">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -6429,7 +6447,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" spans="1:26">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -6457,7 +6475,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" spans="1:26">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -6485,7 +6503,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" spans="1:26">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -6513,7 +6531,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" spans="1:26">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -6541,7 +6559,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" spans="1:26">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -6569,7 +6587,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" spans="1:26">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -6597,7 +6615,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" spans="1:26">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -6625,7 +6643,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" spans="1:26">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -6653,7 +6671,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" spans="1:26">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -6681,7 +6699,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" spans="1:26">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -6709,7 +6727,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" spans="1:26">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -6737,7 +6755,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" spans="1:26">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -6765,7 +6783,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" spans="1:26">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -6793,7 +6811,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" spans="1:26">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -6821,7 +6839,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" spans="1:26">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6849,7 +6867,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" spans="1:26">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6877,7 +6895,7 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201" spans="1:26">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -6905,7 +6923,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" spans="1:26">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -6933,7 +6951,7 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" spans="1:26">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6961,7 +6979,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" spans="1:26">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -6989,7 +7007,7 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" spans="1:26">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -7017,7 +7035,7 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" spans="1:26">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -7045,7 +7063,7 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207" spans="1:26">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -7073,7 +7091,7 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" spans="1:26">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -7101,7 +7119,7 @@
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
     </row>
-    <row r="209" spans="1:26">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -7129,7 +7147,7 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210" spans="1:26">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -7157,7 +7175,7 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
     </row>
-    <row r="211" spans="1:26">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -7185,7 +7203,7 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
     </row>
-    <row r="212" spans="1:26">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -7213,7 +7231,7 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
     </row>
-    <row r="213" spans="1:26">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -7241,7 +7259,7 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
     </row>
-    <row r="214" spans="1:26">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -7269,7 +7287,7 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
     </row>
-    <row r="215" spans="1:26">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -7297,7 +7315,7 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
     </row>
-    <row r="216" spans="1:26">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -7325,7 +7343,7 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
     </row>
-    <row r="217" spans="1:26">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -7353,7 +7371,7 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
     </row>
-    <row r="218" spans="1:26">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -7381,7 +7399,7 @@
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
     </row>
-    <row r="219" spans="1:26">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -7409,7 +7427,7 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
     </row>
-    <row r="220" spans="1:26">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -7437,7 +7455,7 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221" spans="1:26">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -7465,7 +7483,7 @@
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
     </row>
-    <row r="222" spans="1:26">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -7493,7 +7511,7 @@
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
     </row>
-    <row r="223" spans="1:26">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -7521,7 +7539,7 @@
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
     </row>
-    <row r="224" spans="1:26">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -7549,7 +7567,7 @@
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
     </row>
-    <row r="225" spans="1:26">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -7577,7 +7595,7 @@
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
     </row>
-    <row r="226" spans="1:26">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -7605,7 +7623,7 @@
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
     </row>
-    <row r="227" spans="1:26">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -7633,7 +7651,7 @@
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
     </row>
-    <row r="228" spans="1:26">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -7661,7 +7679,7 @@
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
     </row>
-    <row r="229" spans="1:26">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -7689,7 +7707,7 @@
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
     </row>
-    <row r="230" spans="1:26">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -7717,7 +7735,7 @@
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
     </row>
-    <row r="231" spans="1:26">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -7745,7 +7763,7 @@
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
     </row>
-    <row r="232" spans="1:26">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -7773,7 +7791,7 @@
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
     </row>
-    <row r="233" spans="1:26">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -7801,7 +7819,7 @@
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
     </row>
-    <row r="234" spans="1:26">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -7829,7 +7847,7 @@
       <c r="Y234" s="1"/>
       <c r="Z234" s="1"/>
     </row>
-    <row r="235" spans="1:26">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -7857,7 +7875,7 @@
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
     </row>
-    <row r="236" spans="1:26">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -7885,7 +7903,7 @@
       <c r="Y236" s="1"/>
       <c r="Z236" s="1"/>
     </row>
-    <row r="237" spans="1:26">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -7913,7 +7931,7 @@
       <c r="Y237" s="1"/>
       <c r="Z237" s="1"/>
     </row>
-    <row r="238" spans="1:26">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -7941,7 +7959,7 @@
       <c r="Y238" s="1"/>
       <c r="Z238" s="1"/>
     </row>
-    <row r="239" spans="1:26">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -7969,7 +7987,7 @@
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
     </row>
-    <row r="240" spans="1:26">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -7997,7 +8015,7 @@
       <c r="Y240" s="1"/>
       <c r="Z240" s="1"/>
     </row>
-    <row r="241" spans="1:26">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -8025,7 +8043,7 @@
       <c r="Y241" s="1"/>
       <c r="Z241" s="1"/>
     </row>
-    <row r="242" spans="1:26">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -8053,7 +8071,7 @@
       <c r="Y242" s="1"/>
       <c r="Z242" s="1"/>
     </row>
-    <row r="243" spans="1:26">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -8081,7 +8099,7 @@
       <c r="Y243" s="1"/>
       <c r="Z243" s="1"/>
     </row>
-    <row r="244" spans="1:26">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -8109,7 +8127,7 @@
       <c r="Y244" s="1"/>
       <c r="Z244" s="1"/>
     </row>
-    <row r="245" spans="1:26">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -8137,7 +8155,7 @@
       <c r="Y245" s="1"/>
       <c r="Z245" s="1"/>
     </row>
-    <row r="246" spans="1:26">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -8165,7 +8183,7 @@
       <c r="Y246" s="1"/>
       <c r="Z246" s="1"/>
     </row>
-    <row r="247" spans="1:26">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -8193,7 +8211,7 @@
       <c r="Y247" s="1"/>
       <c r="Z247" s="1"/>
     </row>
-    <row r="248" spans="1:26">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -8221,7 +8239,7 @@
       <c r="Y248" s="1"/>
       <c r="Z248" s="1"/>
     </row>
-    <row r="249" spans="1:26">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -8249,7 +8267,7 @@
       <c r="Y249" s="1"/>
       <c r="Z249" s="1"/>
     </row>
-    <row r="250" spans="1:26">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -8277,7 +8295,7 @@
       <c r="Y250" s="1"/>
       <c r="Z250" s="1"/>
     </row>
-    <row r="251" spans="1:26">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -8305,7 +8323,7 @@
       <c r="Y251" s="1"/>
       <c r="Z251" s="1"/>
     </row>
-    <row r="252" spans="1:26">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -8333,7 +8351,7 @@
       <c r="Y252" s="1"/>
       <c r="Z252" s="1"/>
     </row>
-    <row r="253" spans="1:26">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -8361,7 +8379,7 @@
       <c r="Y253" s="1"/>
       <c r="Z253" s="1"/>
     </row>
-    <row r="254" spans="1:26">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -8389,7 +8407,7 @@
       <c r="Y254" s="1"/>
       <c r="Z254" s="1"/>
     </row>
-    <row r="255" spans="1:26">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -8417,7 +8435,7 @@
       <c r="Y255" s="1"/>
       <c r="Z255" s="1"/>
     </row>
-    <row r="256" spans="1:26">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -8445,7 +8463,7 @@
       <c r="Y256" s="1"/>
       <c r="Z256" s="1"/>
     </row>
-    <row r="257" spans="1:26">
+    <row r="257" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -8473,7 +8491,7 @@
       <c r="Y257" s="1"/>
       <c r="Z257" s="1"/>
     </row>
-    <row r="258" spans="1:26">
+    <row r="258" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -8501,7 +8519,7 @@
       <c r="Y258" s="1"/>
       <c r="Z258" s="1"/>
     </row>
-    <row r="259" spans="1:26">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -8529,7 +8547,7 @@
       <c r="Y259" s="1"/>
       <c r="Z259" s="1"/>
     </row>
-    <row r="260" spans="1:26">
+    <row r="260" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -8557,7 +8575,7 @@
       <c r="Y260" s="1"/>
       <c r="Z260" s="1"/>
     </row>
-    <row r="261" spans="1:26">
+    <row r="261" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -8585,7 +8603,7 @@
       <c r="Y261" s="1"/>
       <c r="Z261" s="1"/>
     </row>
-    <row r="262" spans="1:26">
+    <row r="262" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -8613,7 +8631,7 @@
       <c r="Y262" s="1"/>
       <c r="Z262" s="1"/>
     </row>
-    <row r="263" spans="1:26">
+    <row r="263" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -8641,7 +8659,7 @@
       <c r="Y263" s="1"/>
       <c r="Z263" s="1"/>
     </row>
-    <row r="264" spans="1:26">
+    <row r="264" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -8669,7 +8687,7 @@
       <c r="Y264" s="1"/>
       <c r="Z264" s="1"/>
     </row>
-    <row r="265" spans="1:26">
+    <row r="265" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -8697,7 +8715,7 @@
       <c r="Y265" s="1"/>
       <c r="Z265" s="1"/>
     </row>
-    <row r="266" spans="1:26">
+    <row r="266" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -8725,7 +8743,7 @@
       <c r="Y266" s="1"/>
       <c r="Z266" s="1"/>
     </row>
-    <row r="267" spans="1:26">
+    <row r="267" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -8753,7 +8771,7 @@
       <c r="Y267" s="1"/>
       <c r="Z267" s="1"/>
     </row>
-    <row r="268" spans="1:26">
+    <row r="268" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -8781,7 +8799,7 @@
       <c r="Y268" s="1"/>
       <c r="Z268" s="1"/>
     </row>
-    <row r="269" spans="1:26">
+    <row r="269" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -8809,7 +8827,7 @@
       <c r="Y269" s="1"/>
       <c r="Z269" s="1"/>
     </row>
-    <row r="270" spans="1:26">
+    <row r="270" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -8837,7 +8855,7 @@
       <c r="Y270" s="1"/>
       <c r="Z270" s="1"/>
     </row>
-    <row r="271" spans="1:26">
+    <row r="271" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -8865,7 +8883,7 @@
       <c r="Y271" s="1"/>
       <c r="Z271" s="1"/>
     </row>
-    <row r="272" spans="1:26">
+    <row r="272" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -8893,7 +8911,7 @@
       <c r="Y272" s="1"/>
       <c r="Z272" s="1"/>
     </row>
-    <row r="273" spans="1:26">
+    <row r="273" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -8921,7 +8939,7 @@
       <c r="Y273" s="1"/>
       <c r="Z273" s="1"/>
     </row>
-    <row r="274" spans="1:26">
+    <row r="274" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -8949,7 +8967,7 @@
       <c r="Y274" s="1"/>
       <c r="Z274" s="1"/>
     </row>
-    <row r="275" spans="1:26">
+    <row r="275" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -8977,7 +8995,7 @@
       <c r="Y275" s="1"/>
       <c r="Z275" s="1"/>
     </row>
-    <row r="276" spans="1:26">
+    <row r="276" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -9005,7 +9023,7 @@
       <c r="Y276" s="1"/>
       <c r="Z276" s="1"/>
     </row>
-    <row r="277" spans="1:26">
+    <row r="277" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -9033,7 +9051,7 @@
       <c r="Y277" s="1"/>
       <c r="Z277" s="1"/>
     </row>
-    <row r="278" spans="1:26">
+    <row r="278" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -9061,7 +9079,7 @@
       <c r="Y278" s="1"/>
       <c r="Z278" s="1"/>
     </row>
-    <row r="279" spans="1:26">
+    <row r="279" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -9089,7 +9107,7 @@
       <c r="Y279" s="1"/>
       <c r="Z279" s="1"/>
     </row>
-    <row r="280" spans="1:26">
+    <row r="280" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -9117,7 +9135,7 @@
       <c r="Y280" s="1"/>
       <c r="Z280" s="1"/>
     </row>
-    <row r="281" spans="1:26">
+    <row r="281" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -9145,7 +9163,7 @@
       <c r="Y281" s="1"/>
       <c r="Z281" s="1"/>
     </row>
-    <row r="282" spans="1:26">
+    <row r="282" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -9173,7 +9191,7 @@
       <c r="Y282" s="1"/>
       <c r="Z282" s="1"/>
     </row>
-    <row r="283" spans="1:26">
+    <row r="283" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -9201,7 +9219,7 @@
       <c r="Y283" s="1"/>
       <c r="Z283" s="1"/>
     </row>
-    <row r="284" spans="1:26">
+    <row r="284" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -9229,7 +9247,7 @@
       <c r="Y284" s="1"/>
       <c r="Z284" s="1"/>
     </row>
-    <row r="285" spans="1:26">
+    <row r="285" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -9257,7 +9275,7 @@
       <c r="Y285" s="1"/>
       <c r="Z285" s="1"/>
     </row>
-    <row r="286" spans="1:26">
+    <row r="286" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -9285,7 +9303,7 @@
       <c r="Y286" s="1"/>
       <c r="Z286" s="1"/>
     </row>
-    <row r="287" spans="1:26">
+    <row r="287" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -9313,7 +9331,7 @@
       <c r="Y287" s="1"/>
       <c r="Z287" s="1"/>
     </row>
-    <row r="288" spans="1:26">
+    <row r="288" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -9341,7 +9359,7 @@
       <c r="Y288" s="1"/>
       <c r="Z288" s="1"/>
     </row>
-    <row r="289" spans="1:26">
+    <row r="289" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -9369,7 +9387,7 @@
       <c r="Y289" s="1"/>
       <c r="Z289" s="1"/>
     </row>
-    <row r="290" spans="1:26">
+    <row r="290" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -9397,7 +9415,7 @@
       <c r="Y290" s="1"/>
       <c r="Z290" s="1"/>
     </row>
-    <row r="291" spans="1:26">
+    <row r="291" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -9425,7 +9443,7 @@
       <c r="Y291" s="1"/>
       <c r="Z291" s="1"/>
     </row>
-    <row r="292" spans="1:26">
+    <row r="292" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -9453,7 +9471,7 @@
       <c r="Y292" s="1"/>
       <c r="Z292" s="1"/>
     </row>
-    <row r="293" spans="1:26">
+    <row r="293" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -9481,7 +9499,7 @@
       <c r="Y293" s="1"/>
       <c r="Z293" s="1"/>
     </row>
-    <row r="294" spans="1:26">
+    <row r="294" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -9509,7 +9527,7 @@
       <c r="Y294" s="1"/>
       <c r="Z294" s="1"/>
     </row>
-    <row r="295" spans="1:26">
+    <row r="295" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -9537,7 +9555,7 @@
       <c r="Y295" s="1"/>
       <c r="Z295" s="1"/>
     </row>
-    <row r="296" spans="1:26">
+    <row r="296" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -9565,7 +9583,7 @@
       <c r="Y296" s="1"/>
       <c r="Z296" s="1"/>
     </row>
-    <row r="297" spans="1:26">
+    <row r="297" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -9593,7 +9611,7 @@
       <c r="Y297" s="1"/>
       <c r="Z297" s="1"/>
     </row>
-    <row r="298" spans="1:26">
+    <row r="298" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -9621,7 +9639,7 @@
       <c r="Y298" s="1"/>
       <c r="Z298" s="1"/>
     </row>
-    <row r="299" spans="1:26">
+    <row r="299" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -9649,7 +9667,7 @@
       <c r="Y299" s="1"/>
       <c r="Z299" s="1"/>
     </row>
-    <row r="300" spans="1:26">
+    <row r="300" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -9677,7 +9695,7 @@
       <c r="Y300" s="1"/>
       <c r="Z300" s="1"/>
     </row>
-    <row r="301" spans="1:26">
+    <row r="301" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -9705,7 +9723,7 @@
       <c r="Y301" s="1"/>
       <c r="Z301" s="1"/>
     </row>
-    <row r="302" spans="1:26">
+    <row r="302" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -9733,7 +9751,7 @@
       <c r="Y302" s="1"/>
       <c r="Z302" s="1"/>
     </row>
-    <row r="303" spans="1:26">
+    <row r="303" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -9761,7 +9779,7 @@
       <c r="Y303" s="1"/>
       <c r="Z303" s="1"/>
     </row>
-    <row r="304" spans="1:26">
+    <row r="304" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -9789,7 +9807,7 @@
       <c r="Y304" s="1"/>
       <c r="Z304" s="1"/>
     </row>
-    <row r="305" spans="1:26">
+    <row r="305" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -9817,7 +9835,7 @@
       <c r="Y305" s="1"/>
       <c r="Z305" s="1"/>
     </row>
-    <row r="306" spans="1:26">
+    <row r="306" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -9845,7 +9863,7 @@
       <c r="Y306" s="1"/>
       <c r="Z306" s="1"/>
     </row>
-    <row r="307" spans="1:26">
+    <row r="307" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -9873,7 +9891,7 @@
       <c r="Y307" s="1"/>
       <c r="Z307" s="1"/>
     </row>
-    <row r="308" spans="1:26">
+    <row r="308" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -9901,7 +9919,7 @@
       <c r="Y308" s="1"/>
       <c r="Z308" s="1"/>
     </row>
-    <row r="309" spans="1:26">
+    <row r="309" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -9929,7 +9947,7 @@
       <c r="Y309" s="1"/>
       <c r="Z309" s="1"/>
     </row>
-    <row r="310" spans="1:26">
+    <row r="310" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -9957,7 +9975,7 @@
       <c r="Y310" s="1"/>
       <c r="Z310" s="1"/>
     </row>
-    <row r="311" spans="1:26">
+    <row r="311" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -9985,7 +10003,7 @@
       <c r="Y311" s="1"/>
       <c r="Z311" s="1"/>
     </row>
-    <row r="312" spans="1:26">
+    <row r="312" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -10013,7 +10031,7 @@
       <c r="Y312" s="1"/>
       <c r="Z312" s="1"/>
     </row>
-    <row r="313" spans="1:26">
+    <row r="313" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -10041,7 +10059,7 @@
       <c r="Y313" s="1"/>
       <c r="Z313" s="1"/>
     </row>
-    <row r="314" spans="1:26">
+    <row r="314" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -10069,7 +10087,7 @@
       <c r="Y314" s="1"/>
       <c r="Z314" s="1"/>
     </row>
-    <row r="315" spans="1:26">
+    <row r="315" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -10097,7 +10115,7 @@
       <c r="Y315" s="1"/>
       <c r="Z315" s="1"/>
     </row>
-    <row r="316" spans="1:26">
+    <row r="316" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -10125,7 +10143,7 @@
       <c r="Y316" s="1"/>
       <c r="Z316" s="1"/>
     </row>
-    <row r="317" spans="1:26">
+    <row r="317" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -10153,7 +10171,7 @@
       <c r="Y317" s="1"/>
       <c r="Z317" s="1"/>
     </row>
-    <row r="318" spans="1:26">
+    <row r="318" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -10181,7 +10199,7 @@
       <c r="Y318" s="1"/>
       <c r="Z318" s="1"/>
     </row>
-    <row r="319" spans="1:26">
+    <row r="319" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -10209,7 +10227,7 @@
       <c r="Y319" s="1"/>
       <c r="Z319" s="1"/>
     </row>
-    <row r="320" spans="1:26">
+    <row r="320" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -10237,7 +10255,7 @@
       <c r="Y320" s="1"/>
       <c r="Z320" s="1"/>
     </row>
-    <row r="321" spans="1:26">
+    <row r="321" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -10265,7 +10283,7 @@
       <c r="Y321" s="1"/>
       <c r="Z321" s="1"/>
     </row>
-    <row r="322" spans="1:26">
+    <row r="322" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -10293,7 +10311,7 @@
       <c r="Y322" s="1"/>
       <c r="Z322" s="1"/>
     </row>
-    <row r="323" spans="1:26">
+    <row r="323" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -10321,7 +10339,7 @@
       <c r="Y323" s="1"/>
       <c r="Z323" s="1"/>
     </row>
-    <row r="324" spans="1:26">
+    <row r="324" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -10349,7 +10367,7 @@
       <c r="Y324" s="1"/>
       <c r="Z324" s="1"/>
     </row>
-    <row r="325" spans="1:26">
+    <row r="325" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -10377,7 +10395,7 @@
       <c r="Y325" s="1"/>
       <c r="Z325" s="1"/>
     </row>
-    <row r="326" spans="1:26">
+    <row r="326" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -10405,7 +10423,7 @@
       <c r="Y326" s="1"/>
       <c r="Z326" s="1"/>
     </row>
-    <row r="327" spans="1:26">
+    <row r="327" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -10433,7 +10451,7 @@
       <c r="Y327" s="1"/>
       <c r="Z327" s="1"/>
     </row>
-    <row r="328" spans="1:26">
+    <row r="328" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -10461,7 +10479,7 @@
       <c r="Y328" s="1"/>
       <c r="Z328" s="1"/>
     </row>
-    <row r="329" spans="1:26">
+    <row r="329" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -10489,7 +10507,7 @@
       <c r="Y329" s="1"/>
       <c r="Z329" s="1"/>
     </row>
-    <row r="330" spans="1:26">
+    <row r="330" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -10517,7 +10535,7 @@
       <c r="Y330" s="1"/>
       <c r="Z330" s="1"/>
     </row>
-    <row r="331" spans="1:26">
+    <row r="331" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -10545,7 +10563,7 @@
       <c r="Y331" s="1"/>
       <c r="Z331" s="1"/>
     </row>
-    <row r="332" spans="1:26">
+    <row r="332" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -10573,7 +10591,7 @@
       <c r="Y332" s="1"/>
       <c r="Z332" s="1"/>
     </row>
-    <row r="333" spans="1:26">
+    <row r="333" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -10601,7 +10619,7 @@
       <c r="Y333" s="1"/>
       <c r="Z333" s="1"/>
     </row>
-    <row r="334" spans="1:26">
+    <row r="334" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -10629,7 +10647,7 @@
       <c r="Y334" s="1"/>
       <c r="Z334" s="1"/>
     </row>
-    <row r="335" spans="1:26">
+    <row r="335" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -10657,7 +10675,7 @@
       <c r="Y335" s="1"/>
       <c r="Z335" s="1"/>
     </row>
-    <row r="336" spans="1:26">
+    <row r="336" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -10685,7 +10703,7 @@
       <c r="Y336" s="1"/>
       <c r="Z336" s="1"/>
     </row>
-    <row r="337" spans="1:26">
+    <row r="337" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -10713,7 +10731,7 @@
       <c r="Y337" s="1"/>
       <c r="Z337" s="1"/>
     </row>
-    <row r="338" spans="1:26">
+    <row r="338" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -10741,7 +10759,7 @@
       <c r="Y338" s="1"/>
       <c r="Z338" s="1"/>
     </row>
-    <row r="339" spans="1:26">
+    <row r="339" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -10769,7 +10787,7 @@
       <c r="Y339" s="1"/>
       <c r="Z339" s="1"/>
     </row>
-    <row r="340" spans="1:26">
+    <row r="340" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -10797,7 +10815,7 @@
       <c r="Y340" s="1"/>
       <c r="Z340" s="1"/>
     </row>
-    <row r="341" spans="1:26">
+    <row r="341" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -10825,7 +10843,7 @@
       <c r="Y341" s="1"/>
       <c r="Z341" s="1"/>
     </row>
-    <row r="342" spans="1:26">
+    <row r="342" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -10853,7 +10871,7 @@
       <c r="Y342" s="1"/>
       <c r="Z342" s="1"/>
     </row>
-    <row r="343" spans="1:26">
+    <row r="343" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -10881,7 +10899,7 @@
       <c r="Y343" s="1"/>
       <c r="Z343" s="1"/>
     </row>
-    <row r="344" spans="1:26">
+    <row r="344" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -10909,7 +10927,7 @@
       <c r="Y344" s="1"/>
       <c r="Z344" s="1"/>
     </row>
-    <row r="345" spans="1:26">
+    <row r="345" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -10937,7 +10955,7 @@
       <c r="Y345" s="1"/>
       <c r="Z345" s="1"/>
     </row>
-    <row r="346" spans="1:26">
+    <row r="346" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -10965,7 +10983,7 @@
       <c r="Y346" s="1"/>
       <c r="Z346" s="1"/>
     </row>
-    <row r="347" spans="1:26">
+    <row r="347" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -10993,7 +11011,7 @@
       <c r="Y347" s="1"/>
       <c r="Z347" s="1"/>
     </row>
-    <row r="348" spans="1:26">
+    <row r="348" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -11021,7 +11039,7 @@
       <c r="Y348" s="1"/>
       <c r="Z348" s="1"/>
     </row>
-    <row r="349" spans="1:26">
+    <row r="349" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -11049,7 +11067,7 @@
       <c r="Y349" s="1"/>
       <c r="Z349" s="1"/>
     </row>
-    <row r="350" spans="1:26">
+    <row r="350" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -11077,7 +11095,7 @@
       <c r="Y350" s="1"/>
       <c r="Z350" s="1"/>
     </row>
-    <row r="351" spans="1:26">
+    <row r="351" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -11105,7 +11123,7 @@
       <c r="Y351" s="1"/>
       <c r="Z351" s="1"/>
     </row>
-    <row r="352" spans="1:26">
+    <row r="352" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -11133,7 +11151,7 @@
       <c r="Y352" s="1"/>
       <c r="Z352" s="1"/>
     </row>
-    <row r="353" spans="1:26">
+    <row r="353" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -11161,7 +11179,7 @@
       <c r="Y353" s="1"/>
       <c r="Z353" s="1"/>
     </row>
-    <row r="354" spans="1:26">
+    <row r="354" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -11189,7 +11207,7 @@
       <c r="Y354" s="1"/>
       <c r="Z354" s="1"/>
     </row>
-    <row r="355" spans="1:26">
+    <row r="355" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -11217,7 +11235,7 @@
       <c r="Y355" s="1"/>
       <c r="Z355" s="1"/>
     </row>
-    <row r="356" spans="1:26">
+    <row r="356" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -11245,7 +11263,7 @@
       <c r="Y356" s="1"/>
       <c r="Z356" s="1"/>
     </row>
-    <row r="357" spans="1:26">
+    <row r="357" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -11273,7 +11291,7 @@
       <c r="Y357" s="1"/>
       <c r="Z357" s="1"/>
     </row>
-    <row r="358" spans="1:26">
+    <row r="358" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -11301,7 +11319,7 @@
       <c r="Y358" s="1"/>
       <c r="Z358" s="1"/>
     </row>
-    <row r="359" spans="1:26">
+    <row r="359" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -11329,7 +11347,7 @@
       <c r="Y359" s="1"/>
       <c r="Z359" s="1"/>
     </row>
-    <row r="360" spans="1:26">
+    <row r="360" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -11357,7 +11375,7 @@
       <c r="Y360" s="1"/>
       <c r="Z360" s="1"/>
     </row>
-    <row r="361" spans="1:26">
+    <row r="361" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -11385,7 +11403,7 @@
       <c r="Y361" s="1"/>
       <c r="Z361" s="1"/>
     </row>
-    <row r="362" spans="1:26">
+    <row r="362" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -11413,7 +11431,7 @@
       <c r="Y362" s="1"/>
       <c r="Z362" s="1"/>
     </row>
-    <row r="363" spans="1:26">
+    <row r="363" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -11441,7 +11459,7 @@
       <c r="Y363" s="1"/>
       <c r="Z363" s="1"/>
     </row>
-    <row r="364" spans="1:26">
+    <row r="364" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -11469,7 +11487,7 @@
       <c r="Y364" s="1"/>
       <c r="Z364" s="1"/>
     </row>
-    <row r="365" spans="1:26">
+    <row r="365" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -11497,7 +11515,7 @@
       <c r="Y365" s="1"/>
       <c r="Z365" s="1"/>
     </row>
-    <row r="366" spans="1:26">
+    <row r="366" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -11525,7 +11543,7 @@
       <c r="Y366" s="1"/>
       <c r="Z366" s="1"/>
     </row>
-    <row r="367" spans="1:26">
+    <row r="367" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -11553,7 +11571,7 @@
       <c r="Y367" s="1"/>
       <c r="Z367" s="1"/>
     </row>
-    <row r="368" spans="1:26">
+    <row r="368" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -11581,7 +11599,7 @@
       <c r="Y368" s="1"/>
       <c r="Z368" s="1"/>
     </row>
-    <row r="369" spans="1:26">
+    <row r="369" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -11609,7 +11627,7 @@
       <c r="Y369" s="1"/>
       <c r="Z369" s="1"/>
     </row>
-    <row r="370" spans="1:26">
+    <row r="370" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -11637,7 +11655,7 @@
       <c r="Y370" s="1"/>
       <c r="Z370" s="1"/>
     </row>
-    <row r="371" spans="1:26">
+    <row r="371" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -11665,7 +11683,7 @@
       <c r="Y371" s="1"/>
       <c r="Z371" s="1"/>
     </row>
-    <row r="372" spans="1:26">
+    <row r="372" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -11693,7 +11711,7 @@
       <c r="Y372" s="1"/>
       <c r="Z372" s="1"/>
     </row>
-    <row r="373" spans="1:26">
+    <row r="373" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -11721,7 +11739,7 @@
       <c r="Y373" s="1"/>
       <c r="Z373" s="1"/>
     </row>
-    <row r="374" spans="1:26">
+    <row r="374" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -11749,7 +11767,7 @@
       <c r="Y374" s="1"/>
       <c r="Z374" s="1"/>
     </row>
-    <row r="375" spans="1:26">
+    <row r="375" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -11777,7 +11795,7 @@
       <c r="Y375" s="1"/>
       <c r="Z375" s="1"/>
     </row>
-    <row r="376" spans="1:26">
+    <row r="376" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -11805,7 +11823,7 @@
       <c r="Y376" s="1"/>
       <c r="Z376" s="1"/>
     </row>
-    <row r="377" spans="1:26">
+    <row r="377" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -11833,7 +11851,7 @@
       <c r="Y377" s="1"/>
       <c r="Z377" s="1"/>
     </row>
-    <row r="378" spans="1:26">
+    <row r="378" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -11861,7 +11879,7 @@
       <c r="Y378" s="1"/>
       <c r="Z378" s="1"/>
     </row>
-    <row r="379" spans="1:26">
+    <row r="379" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -11889,7 +11907,7 @@
       <c r="Y379" s="1"/>
       <c r="Z379" s="1"/>
     </row>
-    <row r="380" spans="1:26">
+    <row r="380" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -11917,7 +11935,7 @@
       <c r="Y380" s="1"/>
       <c r="Z380" s="1"/>
     </row>
-    <row r="381" spans="1:26">
+    <row r="381" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -11945,7 +11963,7 @@
       <c r="Y381" s="1"/>
       <c r="Z381" s="1"/>
     </row>
-    <row r="382" spans="1:26">
+    <row r="382" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -11973,7 +11991,7 @@
       <c r="Y382" s="1"/>
       <c r="Z382" s="1"/>
     </row>
-    <row r="383" spans="1:26">
+    <row r="383" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -12001,7 +12019,7 @@
       <c r="Y383" s="1"/>
       <c r="Z383" s="1"/>
     </row>
-    <row r="384" spans="1:26">
+    <row r="384" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -12029,7 +12047,7 @@
       <c r="Y384" s="1"/>
       <c r="Z384" s="1"/>
     </row>
-    <row r="385" spans="1:26">
+    <row r="385" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -12057,7 +12075,7 @@
       <c r="Y385" s="1"/>
       <c r="Z385" s="1"/>
     </row>
-    <row r="386" spans="1:26">
+    <row r="386" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -12085,7 +12103,7 @@
       <c r="Y386" s="1"/>
       <c r="Z386" s="1"/>
     </row>
-    <row r="387" spans="1:26">
+    <row r="387" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -12113,7 +12131,7 @@
       <c r="Y387" s="1"/>
       <c r="Z387" s="1"/>
     </row>
-    <row r="388" spans="1:26">
+    <row r="388" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -12141,7 +12159,7 @@
       <c r="Y388" s="1"/>
       <c r="Z388" s="1"/>
     </row>
-    <row r="389" spans="1:26">
+    <row r="389" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -12169,7 +12187,7 @@
       <c r="Y389" s="1"/>
       <c r="Z389" s="1"/>
     </row>
-    <row r="390" spans="1:26">
+    <row r="390" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -12197,7 +12215,7 @@
       <c r="Y390" s="1"/>
       <c r="Z390" s="1"/>
     </row>
-    <row r="391" spans="1:26">
+    <row r="391" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -12225,7 +12243,7 @@
       <c r="Y391" s="1"/>
       <c r="Z391" s="1"/>
     </row>
-    <row r="392" spans="1:26">
+    <row r="392" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -12253,7 +12271,7 @@
       <c r="Y392" s="1"/>
       <c r="Z392" s="1"/>
     </row>
-    <row r="393" spans="1:26">
+    <row r="393" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -12281,7 +12299,7 @@
       <c r="Y393" s="1"/>
       <c r="Z393" s="1"/>
     </row>
-    <row r="394" spans="1:26">
+    <row r="394" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -12309,7 +12327,7 @@
       <c r="Y394" s="1"/>
       <c r="Z394" s="1"/>
     </row>
-    <row r="395" spans="1:26">
+    <row r="395" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -12337,7 +12355,7 @@
       <c r="Y395" s="1"/>
       <c r="Z395" s="1"/>
     </row>
-    <row r="396" spans="1:26">
+    <row r="396" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -12365,7 +12383,7 @@
       <c r="Y396" s="1"/>
       <c r="Z396" s="1"/>
     </row>
-    <row r="397" spans="1:26">
+    <row r="397" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -12393,7 +12411,7 @@
       <c r="Y397" s="1"/>
       <c r="Z397" s="1"/>
     </row>
-    <row r="398" spans="1:26">
+    <row r="398" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -12421,7 +12439,7 @@
       <c r="Y398" s="1"/>
       <c r="Z398" s="1"/>
     </row>
-    <row r="399" spans="1:26">
+    <row r="399" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -12449,7 +12467,7 @@
       <c r="Y399" s="1"/>
       <c r="Z399" s="1"/>
     </row>
-    <row r="400" spans="1:26">
+    <row r="400" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -12477,7 +12495,7 @@
       <c r="Y400" s="1"/>
       <c r="Z400" s="1"/>
     </row>
-    <row r="401" spans="1:26">
+    <row r="401" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -12505,7 +12523,7 @@
       <c r="Y401" s="1"/>
       <c r="Z401" s="1"/>
     </row>
-    <row r="402" spans="1:26">
+    <row r="402" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -12533,7 +12551,7 @@
       <c r="Y402" s="1"/>
       <c r="Z402" s="1"/>
     </row>
-    <row r="403" spans="1:26">
+    <row r="403" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -12561,7 +12579,7 @@
       <c r="Y403" s="1"/>
       <c r="Z403" s="1"/>
     </row>
-    <row r="404" spans="1:26">
+    <row r="404" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -12589,7 +12607,7 @@
       <c r="Y404" s="1"/>
       <c r="Z404" s="1"/>
     </row>
-    <row r="405" spans="1:26">
+    <row r="405" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -12617,7 +12635,7 @@
       <c r="Y405" s="1"/>
       <c r="Z405" s="1"/>
     </row>
-    <row r="406" spans="1:26">
+    <row r="406" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -12645,7 +12663,7 @@
       <c r="Y406" s="1"/>
       <c r="Z406" s="1"/>
     </row>
-    <row r="407" spans="1:26">
+    <row r="407" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -12673,7 +12691,7 @@
       <c r="Y407" s="1"/>
       <c r="Z407" s="1"/>
     </row>
-    <row r="408" spans="1:26">
+    <row r="408" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -12701,7 +12719,7 @@
       <c r="Y408" s="1"/>
       <c r="Z408" s="1"/>
     </row>
-    <row r="409" spans="1:26">
+    <row r="409" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -12729,7 +12747,7 @@
       <c r="Y409" s="1"/>
       <c r="Z409" s="1"/>
     </row>
-    <row r="410" spans="1:26">
+    <row r="410" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -12757,7 +12775,7 @@
       <c r="Y410" s="1"/>
       <c r="Z410" s="1"/>
     </row>
-    <row r="411" spans="1:26">
+    <row r="411" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -12785,7 +12803,7 @@
       <c r="Y411" s="1"/>
       <c r="Z411" s="1"/>
     </row>
-    <row r="412" spans="1:26">
+    <row r="412" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -12813,7 +12831,7 @@
       <c r="Y412" s="1"/>
       <c r="Z412" s="1"/>
     </row>
-    <row r="413" spans="1:26">
+    <row r="413" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -12841,7 +12859,7 @@
       <c r="Y413" s="1"/>
       <c r="Z413" s="1"/>
     </row>
-    <row r="414" spans="1:26">
+    <row r="414" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -12869,7 +12887,7 @@
       <c r="Y414" s="1"/>
       <c r="Z414" s="1"/>
     </row>
-    <row r="415" spans="1:26">
+    <row r="415" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -12897,7 +12915,7 @@
       <c r="Y415" s="1"/>
       <c r="Z415" s="1"/>
     </row>
-    <row r="416" spans="1:26">
+    <row r="416" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -12925,7 +12943,7 @@
       <c r="Y416" s="1"/>
       <c r="Z416" s="1"/>
     </row>
-    <row r="417" spans="1:26">
+    <row r="417" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -12953,7 +12971,7 @@
       <c r="Y417" s="1"/>
       <c r="Z417" s="1"/>
     </row>
-    <row r="418" spans="1:26">
+    <row r="418" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -12981,7 +12999,7 @@
       <c r="Y418" s="1"/>
       <c r="Z418" s="1"/>
     </row>
-    <row r="419" spans="1:26">
+    <row r="419" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -13009,7 +13027,7 @@
       <c r="Y419" s="1"/>
       <c r="Z419" s="1"/>
     </row>
-    <row r="420" spans="1:26">
+    <row r="420" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -13037,7 +13055,7 @@
       <c r="Y420" s="1"/>
       <c r="Z420" s="1"/>
     </row>
-    <row r="421" spans="1:26">
+    <row r="421" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -13065,7 +13083,7 @@
       <c r="Y421" s="1"/>
       <c r="Z421" s="1"/>
     </row>
-    <row r="422" spans="1:26">
+    <row r="422" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -13093,7 +13111,7 @@
       <c r="Y422" s="1"/>
       <c r="Z422" s="1"/>
     </row>
-    <row r="423" spans="1:26">
+    <row r="423" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -13121,7 +13139,7 @@
       <c r="Y423" s="1"/>
       <c r="Z423" s="1"/>
     </row>
-    <row r="424" spans="1:26">
+    <row r="424" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -13149,7 +13167,7 @@
       <c r="Y424" s="1"/>
       <c r="Z424" s="1"/>
     </row>
-    <row r="425" spans="1:26">
+    <row r="425" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -13177,7 +13195,7 @@
       <c r="Y425" s="1"/>
       <c r="Z425" s="1"/>
     </row>
-    <row r="426" spans="1:26">
+    <row r="426" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -13205,7 +13223,7 @@
       <c r="Y426" s="1"/>
       <c r="Z426" s="1"/>
     </row>
-    <row r="427" spans="1:26">
+    <row r="427" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -13233,7 +13251,7 @@
       <c r="Y427" s="1"/>
       <c r="Z427" s="1"/>
     </row>
-    <row r="428" spans="1:26">
+    <row r="428" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -13261,7 +13279,7 @@
       <c r="Y428" s="1"/>
       <c r="Z428" s="1"/>
     </row>
-    <row r="429" spans="1:26">
+    <row r="429" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -13289,7 +13307,7 @@
       <c r="Y429" s="1"/>
       <c r="Z429" s="1"/>
     </row>
-    <row r="430" spans="1:26">
+    <row r="430" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -13317,7 +13335,7 @@
       <c r="Y430" s="1"/>
       <c r="Z430" s="1"/>
     </row>
-    <row r="431" spans="1:26">
+    <row r="431" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -13345,7 +13363,7 @@
       <c r="Y431" s="1"/>
       <c r="Z431" s="1"/>
     </row>
-    <row r="432" spans="1:26">
+    <row r="432" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -13373,7 +13391,7 @@
       <c r="Y432" s="1"/>
       <c r="Z432" s="1"/>
     </row>
-    <row r="433" spans="1:26">
+    <row r="433" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -13401,7 +13419,7 @@
       <c r="Y433" s="1"/>
       <c r="Z433" s="1"/>
     </row>
-    <row r="434" spans="1:26">
+    <row r="434" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -13429,7 +13447,7 @@
       <c r="Y434" s="1"/>
       <c r="Z434" s="1"/>
     </row>
-    <row r="435" spans="1:26">
+    <row r="435" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -13457,7 +13475,7 @@
       <c r="Y435" s="1"/>
       <c r="Z435" s="1"/>
     </row>
-    <row r="436" spans="1:26">
+    <row r="436" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -13485,7 +13503,7 @@
       <c r="Y436" s="1"/>
       <c r="Z436" s="1"/>
     </row>
-    <row r="437" spans="1:26">
+    <row r="437" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -13513,7 +13531,7 @@
       <c r="Y437" s="1"/>
       <c r="Z437" s="1"/>
     </row>
-    <row r="438" spans="1:26">
+    <row r="438" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -13541,7 +13559,7 @@
       <c r="Y438" s="1"/>
       <c r="Z438" s="1"/>
     </row>
-    <row r="439" spans="1:26">
+    <row r="439" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -13569,7 +13587,7 @@
       <c r="Y439" s="1"/>
       <c r="Z439" s="1"/>
     </row>
-    <row r="440" spans="1:26">
+    <row r="440" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -13597,7 +13615,7 @@
       <c r="Y440" s="1"/>
       <c r="Z440" s="1"/>
     </row>
-    <row r="441" spans="1:26">
+    <row r="441" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -13625,7 +13643,7 @@
       <c r="Y441" s="1"/>
       <c r="Z441" s="1"/>
     </row>
-    <row r="442" spans="1:26">
+    <row r="442" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -13653,7 +13671,7 @@
       <c r="Y442" s="1"/>
       <c r="Z442" s="1"/>
     </row>
-    <row r="443" spans="1:26">
+    <row r="443" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -13681,7 +13699,7 @@
       <c r="Y443" s="1"/>
       <c r="Z443" s="1"/>
     </row>
-    <row r="444" spans="1:26">
+    <row r="444" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -13709,7 +13727,7 @@
       <c r="Y444" s="1"/>
       <c r="Z444" s="1"/>
     </row>
-    <row r="445" spans="1:26">
+    <row r="445" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -13737,7 +13755,7 @@
       <c r="Y445" s="1"/>
       <c r="Z445" s="1"/>
     </row>
-    <row r="446" spans="1:26">
+    <row r="446" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -13765,7 +13783,7 @@
       <c r="Y446" s="1"/>
       <c r="Z446" s="1"/>
     </row>
-    <row r="447" spans="1:26">
+    <row r="447" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -13793,7 +13811,7 @@
       <c r="Y447" s="1"/>
       <c r="Z447" s="1"/>
     </row>
-    <row r="448" spans="1:26">
+    <row r="448" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -13821,7 +13839,7 @@
       <c r="Y448" s="1"/>
       <c r="Z448" s="1"/>
     </row>
-    <row r="449" spans="1:26">
+    <row r="449" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -13849,7 +13867,7 @@
       <c r="Y449" s="1"/>
       <c r="Z449" s="1"/>
     </row>
-    <row r="450" spans="1:26">
+    <row r="450" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -13877,7 +13895,7 @@
       <c r="Y450" s="1"/>
       <c r="Z450" s="1"/>
     </row>
-    <row r="451" spans="1:26">
+    <row r="451" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -13905,7 +13923,7 @@
       <c r="Y451" s="1"/>
       <c r="Z451" s="1"/>
     </row>
-    <row r="452" spans="1:26">
+    <row r="452" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -13933,7 +13951,7 @@
       <c r="Y452" s="1"/>
       <c r="Z452" s="1"/>
     </row>
-    <row r="453" spans="1:26">
+    <row r="453" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -13961,7 +13979,7 @@
       <c r="Y453" s="1"/>
       <c r="Z453" s="1"/>
     </row>
-    <row r="454" spans="1:26">
+    <row r="454" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -13989,7 +14007,7 @@
       <c r="Y454" s="1"/>
       <c r="Z454" s="1"/>
     </row>
-    <row r="455" spans="1:26">
+    <row r="455" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -14017,7 +14035,7 @@
       <c r="Y455" s="1"/>
       <c r="Z455" s="1"/>
     </row>
-    <row r="456" spans="1:26">
+    <row r="456" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -14045,7 +14063,7 @@
       <c r="Y456" s="1"/>
       <c r="Z456" s="1"/>
     </row>
-    <row r="457" spans="1:26">
+    <row r="457" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -14073,7 +14091,7 @@
       <c r="Y457" s="1"/>
       <c r="Z457" s="1"/>
     </row>
-    <row r="458" spans="1:26">
+    <row r="458" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -14101,7 +14119,7 @@
       <c r="Y458" s="1"/>
       <c r="Z458" s="1"/>
     </row>
-    <row r="459" spans="1:26">
+    <row r="459" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -14129,7 +14147,7 @@
       <c r="Y459" s="1"/>
       <c r="Z459" s="1"/>
     </row>
-    <row r="460" spans="1:26">
+    <row r="460" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -14157,7 +14175,7 @@
       <c r="Y460" s="1"/>
       <c r="Z460" s="1"/>
     </row>
-    <row r="461" spans="1:26">
+    <row r="461" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -14185,7 +14203,7 @@
       <c r="Y461" s="1"/>
       <c r="Z461" s="1"/>
     </row>
-    <row r="462" spans="1:26">
+    <row r="462" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -14213,7 +14231,7 @@
       <c r="Y462" s="1"/>
       <c r="Z462" s="1"/>
     </row>
-    <row r="463" spans="1:26">
+    <row r="463" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -14241,7 +14259,7 @@
       <c r="Y463" s="1"/>
       <c r="Z463" s="1"/>
     </row>
-    <row r="464" spans="1:26">
+    <row r="464" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -14269,7 +14287,7 @@
       <c r="Y464" s="1"/>
       <c r="Z464" s="1"/>
     </row>
-    <row r="465" spans="1:26">
+    <row r="465" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -14297,7 +14315,7 @@
       <c r="Y465" s="1"/>
       <c r="Z465" s="1"/>
     </row>
-    <row r="466" spans="1:26">
+    <row r="466" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -14325,7 +14343,7 @@
       <c r="Y466" s="1"/>
       <c r="Z466" s="1"/>
     </row>
-    <row r="467" spans="1:26">
+    <row r="467" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -14353,7 +14371,7 @@
       <c r="Y467" s="1"/>
       <c r="Z467" s="1"/>
     </row>
-    <row r="468" spans="1:26">
+    <row r="468" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -14381,7 +14399,7 @@
       <c r="Y468" s="1"/>
       <c r="Z468" s="1"/>
     </row>
-    <row r="469" spans="1:26">
+    <row r="469" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -14409,7 +14427,7 @@
       <c r="Y469" s="1"/>
       <c r="Z469" s="1"/>
     </row>
-    <row r="470" spans="1:26">
+    <row r="470" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -14437,7 +14455,7 @@
       <c r="Y470" s="1"/>
       <c r="Z470" s="1"/>
     </row>
-    <row r="471" spans="1:26">
+    <row r="471" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -14465,7 +14483,7 @@
       <c r="Y471" s="1"/>
       <c r="Z471" s="1"/>
     </row>
-    <row r="472" spans="1:26">
+    <row r="472" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -14493,7 +14511,7 @@
       <c r="Y472" s="1"/>
       <c r="Z472" s="1"/>
     </row>
-    <row r="473" spans="1:26">
+    <row r="473" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -14521,7 +14539,7 @@
       <c r="Y473" s="1"/>
       <c r="Z473" s="1"/>
     </row>
-    <row r="474" spans="1:26">
+    <row r="474" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -14549,7 +14567,7 @@
       <c r="Y474" s="1"/>
       <c r="Z474" s="1"/>
     </row>
-    <row r="475" spans="1:26">
+    <row r="475" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -14577,7 +14595,7 @@
       <c r="Y475" s="1"/>
       <c r="Z475" s="1"/>
     </row>
-    <row r="476" spans="1:26">
+    <row r="476" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -14605,7 +14623,7 @@
       <c r="Y476" s="1"/>
       <c r="Z476" s="1"/>
     </row>
-    <row r="477" spans="1:26">
+    <row r="477" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -14633,7 +14651,7 @@
       <c r="Y477" s="1"/>
       <c r="Z477" s="1"/>
     </row>
-    <row r="478" spans="1:26">
+    <row r="478" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -14661,7 +14679,7 @@
       <c r="Y478" s="1"/>
       <c r="Z478" s="1"/>
     </row>
-    <row r="479" spans="1:26">
+    <row r="479" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -14689,7 +14707,7 @@
       <c r="Y479" s="1"/>
       <c r="Z479" s="1"/>
     </row>
-    <row r="480" spans="1:26">
+    <row r="480" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -14717,7 +14735,7 @@
       <c r="Y480" s="1"/>
       <c r="Z480" s="1"/>
     </row>
-    <row r="481" spans="1:26">
+    <row r="481" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -14745,7 +14763,7 @@
       <c r="Y481" s="1"/>
       <c r="Z481" s="1"/>
     </row>
-    <row r="482" spans="1:26">
+    <row r="482" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -14773,7 +14791,7 @@
       <c r="Y482" s="1"/>
       <c r="Z482" s="1"/>
     </row>
-    <row r="483" spans="1:26">
+    <row r="483" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -14801,7 +14819,7 @@
       <c r="Y483" s="1"/>
       <c r="Z483" s="1"/>
     </row>
-    <row r="484" spans="1:26">
+    <row r="484" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -14829,7 +14847,7 @@
       <c r="Y484" s="1"/>
       <c r="Z484" s="1"/>
     </row>
-    <row r="485" spans="1:26">
+    <row r="485" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -14857,7 +14875,7 @@
       <c r="Y485" s="1"/>
       <c r="Z485" s="1"/>
     </row>
-    <row r="486" spans="1:26">
+    <row r="486" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -14885,7 +14903,7 @@
       <c r="Y486" s="1"/>
       <c r="Z486" s="1"/>
     </row>
-    <row r="487" spans="1:26">
+    <row r="487" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -14913,7 +14931,7 @@
       <c r="Y487" s="1"/>
       <c r="Z487" s="1"/>
     </row>
-    <row r="488" spans="1:26">
+    <row r="488" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -14941,7 +14959,7 @@
       <c r="Y488" s="1"/>
       <c r="Z488" s="1"/>
     </row>
-    <row r="489" spans="1:26">
+    <row r="489" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -14969,7 +14987,7 @@
       <c r="Y489" s="1"/>
       <c r="Z489" s="1"/>
     </row>
-    <row r="490" spans="1:26">
+    <row r="490" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -14997,7 +15015,7 @@
       <c r="Y490" s="1"/>
       <c r="Z490" s="1"/>
     </row>
-    <row r="491" spans="1:26">
+    <row r="491" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -15025,7 +15043,7 @@
       <c r="Y491" s="1"/>
       <c r="Z491" s="1"/>
     </row>
-    <row r="492" spans="1:26">
+    <row r="492" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -15053,7 +15071,7 @@
       <c r="Y492" s="1"/>
       <c r="Z492" s="1"/>
     </row>
-    <row r="493" spans="1:26">
+    <row r="493" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -15081,7 +15099,7 @@
       <c r="Y493" s="1"/>
       <c r="Z493" s="1"/>
     </row>
-    <row r="494" spans="1:26">
+    <row r="494" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -15109,7 +15127,7 @@
       <c r="Y494" s="1"/>
       <c r="Z494" s="1"/>
     </row>
-    <row r="495" spans="1:26">
+    <row r="495" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -15137,7 +15155,7 @@
       <c r="Y495" s="1"/>
       <c r="Z495" s="1"/>
     </row>
-    <row r="496" spans="1:26">
+    <row r="496" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -15165,7 +15183,7 @@
       <c r="Y496" s="1"/>
       <c r="Z496" s="1"/>
     </row>
-    <row r="497" spans="1:26">
+    <row r="497" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -15193,7 +15211,7 @@
       <c r="Y497" s="1"/>
       <c r="Z497" s="1"/>
     </row>
-    <row r="498" spans="1:26">
+    <row r="498" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -15221,7 +15239,7 @@
       <c r="Y498" s="1"/>
       <c r="Z498" s="1"/>
     </row>
-    <row r="499" spans="1:26">
+    <row r="499" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -15249,7 +15267,7 @@
       <c r="Y499" s="1"/>
       <c r="Z499" s="1"/>
     </row>
-    <row r="500" spans="1:26">
+    <row r="500" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -15278,17 +15296,7 @@
       <c r="Z500" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>